--- a/static/file/supervisor_example.xlsx
+++ b/static/file/supervisor_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaochengxin/Resource/Pickr/static/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaochengxin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242BCE0-803A-CA44-BC46-7ECC1CBE30BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B8A5C-4575-3948-98BE-E2C575259610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>user_name</t>
@@ -440,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,70 +453,61 @@
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2">
-        <v>123456</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A8FE18FE-E7FB-1B4E-8D3A-5EC8D6E17207}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6E9BD400-A236-3040-B79A-D51220CDFC42}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A8FE18FE-E7FB-1B4E-8D3A-5EC8D6E17207}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6E9BD400-A236-3040-B79A-D51220CDFC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/static/file/supervisor_example.xlsx
+++ b/static/file/supervisor_example.xlsx
@@ -1,104 +1,694 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaochengxin/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B8A5C-4575-3948-98BE-E2C575259610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>position</t>
+    <t>expertise</t>
   </si>
   <si>
     <t>Clivia</t>
   </si>
   <si>
+    <t>Li</t>
+  </si>
+  <si>
     <t>clivia</t>
   </si>
   <si>
-    <t>Zhao</t>
-  </si>
-  <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>chester</t>
-  </si>
-  <si>
     <t>clivia@cdut.edu.com</t>
   </si>
   <si>
-    <t>chester@cdut.edu.com</t>
+    <t>Advanced Web Applications, Information Systems, Software Development, Wechat Mini-programs</t>
+  </si>
+  <si>
+    <t>Joojo</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>joojowalker</t>
+  </si>
+  <si>
+    <t>joojo@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Information Systems, Recommender Systems, Sentiment Analysis, Business Intelligence &amp; Analytics, Information Security, and Software Development</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>albertxu</t>
+  </si>
+  <si>
+    <t>albert@cdut.edu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning, Information Systems,web-based systems </t>
+  </si>
+  <si>
+    <t>Aymen</t>
+  </si>
+  <si>
+    <t>Chebira</t>
+  </si>
+  <si>
+    <t>aymen</t>
+  </si>
+  <si>
+    <t>aymen@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Information system, databases, software engineering, mobile application development, Web Application devopment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiagoziem </t>
+  </si>
+  <si>
+    <t>Ukwuoma</t>
+  </si>
+  <si>
+    <t>chiagoziem</t>
+  </si>
+  <si>
+    <t>chiagoziem@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Graph representation learning, Medical Imaging, Hydrogen Production prediction, Power system, solar energy prediction, Transmission line fault, Remote sensing images, Transformers, Attention Mechanism, Explainable AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gore </t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>gore</t>
+  </si>
+  <si>
+    <t>gore@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Software Development and Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irfan </t>
+  </si>
+  <si>
+    <t>Ullah</t>
+  </si>
+  <si>
+    <t>irfan</t>
+  </si>
+  <si>
+    <t>irfan@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Information Systems, Recommendation Systems, super resolution, Cloud computing and IoTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakir </t>
+  </si>
+  <si>
+    <t>Hossain</t>
+  </si>
+  <si>
+    <t>jakir</t>
+  </si>
+  <si>
+    <t>jakir@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Cybersecurity and Cryptography</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>happy@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Computer Vision, Pattern Recognition, Medical Imaging, Biomedical Informatics, Industrial Informatics, Agricultural Informatics, and  Environmental Sustainability</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Nneji</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>grace@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Blouin</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>james@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Software Development, Project management, Web Application, Information Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier </t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>javier</t>
+  </si>
+  <si>
+    <t>javier@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Big Data, Data Processing, Business Intelligence &amp; Analytics, Information Systems, Recommender Systems, Game development, and Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon </t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>leon@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Application system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maged </t>
+  </si>
+  <si>
+    <t>Refat</t>
+  </si>
+  <si>
+    <t>maged</t>
+  </si>
+  <si>
+    <t>maged@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Software  Development, Vehicular Networks,  High Performance Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monty </t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>monty</t>
+  </si>
+  <si>
+    <t>monty@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Infoamtion System Desgin, Database management,  Business Intellegence&amp; Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nartey </t>
+  </si>
+  <si>
+    <t>Tettey</t>
+  </si>
+  <si>
+    <t>nartey</t>
+  </si>
+  <si>
+    <t>nartey@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Information Systems,Computer Vision, Sentiment Analysis, Medical Imaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir </t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>yasir</t>
+  </si>
+  <si>
+    <t>yasir@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Artificial Intellegence, Web development, Human computer Interaction, educational technologies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -121,30 +711,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,85 +1314,410 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="96.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" ht="46.8" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="31.2" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="46.8" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="31.2" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="46.8" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="46.8" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" ht="31.2" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" ht="31.2" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3">
         <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="31.2" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A8FE18FE-E7FB-1B4E-8D3A-5EC8D6E17207}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{6E9BD400-A236-3040-B79A-D51220CDFC42}"/>
+    <hyperlink ref="E2" r:id="rId1" display="clivia@cdut.edu.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="joojo@cdut.edu.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="albert@cdut.edu.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="aymen@cdut.edu.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="chiagoziem@cdut.edu.com" tooltip="mailto:chiagoziem@cdut.edu.com"/>
+    <hyperlink ref="E7" r:id="rId6" display="gore@cdut.edu.com"/>
+    <hyperlink ref="E8" r:id="rId7" display="irfan@cdut.edu.com"/>
+    <hyperlink ref="E10" r:id="rId8" display="happy@cdut.edu.com"/>
+    <hyperlink ref="E11" r:id="rId9" display="grace@cdut.edu.com"/>
+    <hyperlink ref="E9" r:id="rId10" display="jakir@cdut.edu.com"/>
+    <hyperlink ref="E12" r:id="rId11" display="james@cdut.edu.com"/>
+    <hyperlink ref="E13" r:id="rId12" display="javier@cdut.edu.com" tooltip="mailto:javier@cdut.edu.com"/>
+    <hyperlink ref="E14" r:id="rId13" display="leon@cdut.edu.com" tooltip="mailto:leon@cdut.edu.com"/>
+    <hyperlink ref="E15" r:id="rId14" display="maged@cdut.edu.com" tooltip="mailto:maged@cdut.edu.com"/>
+    <hyperlink ref="E16" r:id="rId15" display="monty@cdut.edu.com" tooltip="mailto:monty@cdut.edu.com"/>
+    <hyperlink ref="E17" r:id="rId16" display="nartey@cdut.edu.com" tooltip="mailto:nartey@cdut.edu.com"/>
+    <hyperlink ref="E18" r:id="rId17" display="yasir@cdut.edu.com" tooltip="mailto:yasir@cdut.edu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/file/supervisor_example.xlsx
+++ b/static/file/supervisor_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="18348" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>first_name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>expertise</t>
-  </si>
-  <si>
     <t>Clivia</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>clivia@cdut.edu.com</t>
   </si>
   <si>
-    <t>Advanced Web Applications, Information Systems, Software Development, Wechat Mini-programs</t>
-  </si>
-  <si>
     <t>Joojo</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>joojo@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Machine Learning, Information Systems, Recommender Systems, Sentiment Analysis, Business Intelligence &amp; Analytics, Information Security, and Software Development</t>
-  </si>
-  <si>
     <t>Albert</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>albert@cdut.edu.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Deep Learning, Information Systems,web-based systems </t>
-  </si>
-  <si>
     <t>Aymen</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <t>aymen@cdut.edu.com</t>
   </si>
   <si>
-    <t>Information system, databases, software engineering, mobile application development, Web Application devopment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiagoziem </t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>chiagoziem@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Machine Learning, Graph representation learning, Medical Imaging, Hydrogen Production prediction, Power system, solar energy prediction, Transmission line fault, Remote sensing images, Transformers, Attention Mechanism, Explainable AI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gore </t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t>gore@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Software Development and Web</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irfan </t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>irfan@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Machine Learning, Information Systems, Recommendation Systems, super resolution, Cloud computing and IoTs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jakir </t>
   </si>
   <si>
@@ -164,9 +140,6 @@
     <t>jakir@cdut.edu.com</t>
   </si>
   <si>
-    <t>Cybersecurity and Cryptography</t>
-  </si>
-  <si>
     <t>Happy</t>
   </si>
   <si>
@@ -179,9 +152,6 @@
     <t>happy@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Machine Learning, Computer Vision, Pattern Recognition, Medical Imaging, Biomedical Informatics, Industrial Informatics, Agricultural Informatics, and  Environmental Sustainability</t>
-  </si>
-  <si>
     <t>Grace</t>
   </si>
   <si>
@@ -206,9 +176,6 @@
     <t>james@cdut.edu.com</t>
   </si>
   <si>
-    <t>Software Development, Project management, Web Application, Information Systems</t>
-  </si>
-  <si>
     <t xml:space="preserve">Javier </t>
   </si>
   <si>
@@ -221,9 +188,6 @@
     <t>javier@cdut.edu.com</t>
   </si>
   <si>
-    <t>Big Data, Data Processing, Business Intelligence &amp; Analytics, Information Systems, Recommender Systems, Game development, and Software Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leon </t>
   </si>
   <si>
@@ -236,9 +200,6 @@
     <t>leon@cdut.edu.com</t>
   </si>
   <si>
-    <t>Application system development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maged </t>
   </si>
   <si>
@@ -251,9 +212,6 @@
     <t>maged@cdut.edu.com</t>
   </si>
   <si>
-    <t>Software  Development, Vehicular Networks,  High Performance Computing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monty </t>
   </si>
   <si>
@@ -266,9 +224,6 @@
     <t>monty@cdut.edu.com</t>
   </si>
   <si>
-    <t>Infoamtion System Desgin, Database management,  Business Intellegence&amp; Analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nartey </t>
   </si>
   <si>
@@ -281,9 +236,6 @@
     <t>nartey@cdut.edu.com</t>
   </si>
   <si>
-    <t>Deep Learning, Machine Learning, Information Systems,Computer Vision, Sentiment Analysis, Medical Imaging</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yasir </t>
   </si>
   <si>
@@ -294,9 +246,6 @@
   </si>
   <si>
     <t>yasir@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Artificial Intellegence, Web development, Human computer Interaction, educational technologies</t>
   </si>
 </sst>
 </file>
@@ -309,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,13 +289,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,155 +754,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,8 +1263,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1352,349 +1293,313 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="46.8" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="31.2" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="46.8" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="31.2" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" ht="46.8" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="46.8" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" ht="31.2" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:6">
+      <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" ht="31.2" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="3">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" ht="31.2" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/file/supervisor_example.xlsx
+++ b/static/file/supervisor_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18348" windowHeight="6900"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>first_name</t>
   </si>
@@ -44,208 +44,37 @@
     <t>email</t>
   </si>
   <si>
-    <t>Clivia</t>
-  </si>
-  <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>clivia</t>
-  </si>
-  <si>
-    <t>clivia@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Joojo</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>joojowalker</t>
-  </si>
-  <si>
-    <t>joojo@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>Xu</t>
-  </si>
-  <si>
-    <t>albertxu</t>
-  </si>
-  <si>
-    <t>albert@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Aymen</t>
-  </si>
-  <si>
-    <t>Chebira</t>
-  </si>
-  <si>
-    <t>aymen</t>
-  </si>
-  <si>
-    <t>aymen@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiagoziem </t>
-  </si>
-  <si>
-    <t>Ukwuoma</t>
-  </si>
-  <si>
-    <t>chiagoziem</t>
-  </si>
-  <si>
-    <t>chiagoziem@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gore </t>
-  </si>
-  <si>
-    <t>Jiang</t>
-  </si>
-  <si>
-    <t>gore</t>
-  </si>
-  <si>
-    <t>gore@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irfan </t>
-  </si>
-  <si>
-    <t>Ullah</t>
-  </si>
-  <si>
-    <t>irfan</t>
-  </si>
-  <si>
-    <t>irfan@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakir </t>
-  </si>
-  <si>
-    <t>Hossain</t>
-  </si>
-  <si>
-    <t>jakir</t>
-  </si>
-  <si>
-    <t>jakir@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>happy@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Nneji</t>
-  </si>
-  <si>
-    <t>grace</t>
-  </si>
-  <si>
-    <t>grace@cdut.edu.com</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Blouin</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>james@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier </t>
-  </si>
-  <si>
-    <t>Jia</t>
-  </si>
-  <si>
-    <t>javier</t>
-  </si>
-  <si>
-    <t>javier@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leon </t>
-  </si>
-  <si>
-    <t>Liang</t>
-  </si>
-  <si>
-    <t>leon</t>
-  </si>
-  <si>
-    <t>leon@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maged </t>
-  </si>
-  <si>
-    <t>Refat</t>
-  </si>
-  <si>
-    <t>maged</t>
-  </si>
-  <si>
-    <t>maged@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monty </t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>monty</t>
-  </si>
-  <si>
-    <t>monty@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nartey </t>
-  </si>
-  <si>
-    <t>Tettey</t>
-  </si>
-  <si>
-    <t>nartey</t>
-  </si>
-  <si>
-    <t>nartey@cdut.edu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasir </t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>yasir</t>
-  </si>
-  <si>
-    <t>yasir@cdut.edu.com</t>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>supervisor1</t>
+  </si>
+  <si>
+    <t>s1@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>supervisor2</t>
+  </si>
+  <si>
+    <t>s2@cdut.edu.com</t>
+  </si>
+  <si>
+    <t>Supervisor Middle</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>supervisor3</t>
+  </si>
+  <si>
+    <t>s3@cdut.edu.com</t>
   </si>
 </sst>
 </file>
@@ -258,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,12 +112,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,135 +592,135 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -906,12 +729,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1261,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.712962962963" customWidth="1"/>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
@@ -1315,312 +1132,41 @@
     </row>
     <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" ht="15.6" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="15.6" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="clivia@cdut.edu.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="joojo@cdut.edu.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="albert@cdut.edu.com"/>
-    <hyperlink ref="E5" r:id="rId4" display="aymen@cdut.edu.com"/>
-    <hyperlink ref="E6" r:id="rId5" display="chiagoziem@cdut.edu.com" tooltip="mailto:chiagoziem@cdut.edu.com"/>
-    <hyperlink ref="E7" r:id="rId6" display="gore@cdut.edu.com"/>
-    <hyperlink ref="E8" r:id="rId7" display="irfan@cdut.edu.com"/>
-    <hyperlink ref="E10" r:id="rId8" display="happy@cdut.edu.com"/>
-    <hyperlink ref="E11" r:id="rId9" display="grace@cdut.edu.com"/>
-    <hyperlink ref="E9" r:id="rId10" display="jakir@cdut.edu.com"/>
-    <hyperlink ref="E12" r:id="rId11" display="james@cdut.edu.com"/>
-    <hyperlink ref="E13" r:id="rId12" display="javier@cdut.edu.com" tooltip="mailto:javier@cdut.edu.com"/>
-    <hyperlink ref="E14" r:id="rId13" display="leon@cdut.edu.com" tooltip="mailto:leon@cdut.edu.com"/>
-    <hyperlink ref="E15" r:id="rId14" display="maged@cdut.edu.com" tooltip="mailto:maged@cdut.edu.com"/>
-    <hyperlink ref="E16" r:id="rId15" display="monty@cdut.edu.com" tooltip="mailto:monty@cdut.edu.com"/>
-    <hyperlink ref="E17" r:id="rId16" display="nartey@cdut.edu.com" tooltip="mailto:nartey@cdut.edu.com"/>
-    <hyperlink ref="E18" r:id="rId17" display="yasir@cdut.edu.com" tooltip="mailto:yasir@cdut.edu.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
